--- a/BuildTool/Config/Test/RefTest.xlsx
+++ b/BuildTool/Config/Test/RefTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default=Long,长的,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>default=长的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,31 +128,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#arraydefault1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#arraydefault2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#arraysep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#arraydefaultsep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(10_20)_Long_(1,2,3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default=Long_长的_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arraydefault1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arraydefault2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arraysep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arraydefaultsep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradeRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consume[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sep=,*&amp;ref=UseItem.upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*100,2*100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100*30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100*1000,2000*2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -579,12 +607,12 @@
     <col min="13" max="13" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,28 +620,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -621,28 +652,31 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -665,13 +699,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -682,47 +719,59 @@
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/BuildTool/Config/Test/RefTest.xlsx
+++ b/BuildTool/Config/Test/RefTest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sep=,*&amp;ref=UseItem.upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1*100,2*100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,6 +181,14 @@
   </si>
   <si>
     <t>100*1000,2000*2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref=UseItem.upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sep=,*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +594,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,12 +735,15 @@
         <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -753,7 +760,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -763,7 +770,7 @@
       </c>
       <c r="H9" s="3"/>
       <c r="J9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -771,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
